--- a/Big_Bend_Community_College_Organizations.xlsx
+++ b/Big_Bend_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="50" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,49 +480,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Password Help</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My Apps</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -540,22 +534,21 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>New Student</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Password Help</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
+          <t>https://www.bigbend.edu/i-am/new-student/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -567,22 +560,21 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Current Student</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New Student</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/i-am/new-student/</t>
+          <t>https://www.bigbend.edu/i-am/current-student/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -594,22 +586,21 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Returning Student</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Current Student</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/i-am/current-student/</t>
+          <t>https://www.bigbend.edu/i-am/returning/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -621,22 +612,21 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Running Start Student</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Returning Student</t>
+          <t>Arts</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/i-am/returning/</t>
+          <t>https://www.bigbend.edu/i-am/running-start/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -648,22 +638,21 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Advising Maps</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Running Start Student</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/i-am/running-start/</t>
+          <t>https://www.bigbend.edu/academics/advising-maps/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -675,22 +664,21 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Transfer Resources</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Advising Maps</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/academics/advising-maps/</t>
+          <t>https://www.bigbend.edu/i-am/transfer-resources/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -702,22 +690,21 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Accommodation &amp; Accessibility Services</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transfer Resources</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/i-am/transfer-resources/</t>
+          <t>https://www.bigbend.edu/academics/accommodation-accessibility-services/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -729,22 +716,21 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>TRIO Student Support Services</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Service</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Accommodation &amp; Accessibility Services</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/academics/accommodation-accessibility-services/</t>
+          <t>https://www.bigbend.edu/academics/trio-student-support-services/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -756,22 +742,21 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Veteran Services</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Service</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TRIO Student Support Services</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/academics/trio-student-support-services/</t>
+          <t>https://www.bigbend.edu/i-am/veteran/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -783,22 +768,21 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Online Classes at Big Bend</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Veteran Services</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/i-am/veteran/</t>
+          <t>https://www.bigbend.edu/wp-content/uploads/Online-Classes-at-Big-Bend-Community-College.pdf</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -810,17 +794,16 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Canvas Tutorials</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Course Catalog</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -837,22 +820,21 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>One Stop Services</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Online Classes at Big Bend</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/wp-content/uploads/Online-Classes-at-Big-Bend-Community-College.pdf</t>
+          <t>https://www.bigbend.edu/student-center/one-stop-services/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -864,22 +846,21 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TutoringWriting CenterSTEM CentereTutoringTutoring</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Canvas Tutorials</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
+          <t>https://www.bigbend.edu/academics/tutoring/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -890,27 +871,22 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/playlist?list=PLwghiA2aLFIDzkz7R-IJnVYy_YxvZaDNV</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Writing Center</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>One Stop Services</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/one-stop-services/</t>
+          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -922,22 +898,21 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>STEM Center</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TutoringWriting CenterSTEM CentereTutoringTutoring</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/academics/tutoring/</t>
+          <t>https://www.bigbend.edu/academics/stem-center/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -949,22 +924,21 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Testing Services</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Writing Center</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
+          <t>https://www.bigbend.edu/student-center/testing-center/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -976,22 +950,21 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Transcript Request</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>STEM Center</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/academics/stem-center/</t>
+          <t>https://www.bigbend.edu/i-am/transcript-request/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1003,22 +976,21 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>CARE Team</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Testing Services</t>
+          <t>Athletics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/testing-center/</t>
+          <t>https://www.bigbend.edu/student-center/care-team/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1030,22 +1002,21 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Make a Payment</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transcript Request</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/i-am/transcript-request/</t>
+          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1057,22 +1028,21 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Athletics</t>
+          <t>Work Study</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CARE Team</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/care-team/</t>
+          <t>https://www.bigbend.edu/student-center/work-study/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1084,22 +1054,21 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Enroll in Classes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Financial Aid</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/financial-aid/</t>
+          <t>https://www.bigbend.edu/student-center/registering-for-classes/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1111,17 +1080,16 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Class Schedule</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Make a Payment</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1138,22 +1106,21 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Online Orientation</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Student Tuition Easy Payment Plan</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/stepp/</t>
+          <t>https://www.bigbend.edu/i-am/online-orientation-help/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1165,22 +1132,21 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>Acronym Explanations</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Work Study</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/work-study/</t>
+          <t>https://www.bigbend.edu/acronym/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1192,22 +1158,21 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Residence Halls</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Emergency Funding</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
+          <t>https://www.bigbend.edu/student-center/residence-halls/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1219,22 +1184,21 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>DACA &amp; Immigrant Resources</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Enroll in Classes</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/registering-for-classes/</t>
+          <t>https://www.bigbend.edu/student-center/undocumented-status-and-daca-resources/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1246,22 +1210,21 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Big Bend Technology</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Class Schedule</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
+          <t>https://www.bigbend.edu/student-center/big-bend-technology/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1273,22 +1236,21 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Viking Food Pantry</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Online Orientation</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/i-am/online-orientation-help/</t>
+          <t>https://www.bigbend.edu/student-center/viking-food-pantry/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1300,22 +1262,21 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Get Involved</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Acronym Explanations</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/acronym/</t>
+          <t>https://www.bigbend.edu/student-center/get-involved/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1327,22 +1288,21 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Associated Student Body (ASB)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Residence Halls</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/residence-halls/</t>
+          <t>https://www.bigbend.edu/student-center/associated-student-body/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1354,22 +1314,21 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Columbia Basin Allied Arts</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Career Services</t>
+          <t>Arts</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/career-services/</t>
+          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1381,22 +1340,21 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Clubs and Communities</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Course Materials – Bookstore</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
+          <t>https://www.bigbend.edu/student-center/student-clubs-and-communities/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1408,22 +1366,21 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Report It</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DACA &amp; Immigrant Resources</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/undocumented-status-and-daca-resources/</t>
+          <t>https://www.bigbend.edu/about-us/report-it/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1435,22 +1392,21 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Injury or Near Miss Report</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Big Bend Technology</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/big-bend-technology/</t>
+          <t>https://www.bigbend.edu/student-center/injury-or-near-miss-report-form/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1462,22 +1418,21 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student’s Right to Know</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Viking Food Pantry</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/viking-food-pantry/</t>
+          <t>https://www.bigbend.edu/student-center/students-right-to-know/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1489,22 +1444,21 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Title IX</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Get Involved</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/get-involved/</t>
+          <t>https://www.bigbend.edu/about-us/title-ix/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1516,22 +1470,21 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Anti-Hazing (Hazing Prevention)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Associated Student Body (ASB)</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/associated-student-body/</t>
+          <t>https://www.bigbend.edu/anti-hazing-hazing-prevention/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1543,22 +1496,21 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Maps and Directions</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Columbia Basin Allied Arts</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
+          <t>https://www.bigbend.edu/about-us/maps-and-directions/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1570,22 +1522,21 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TRiO EOC &amp; Outreach</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Student Clubs and Communities</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/student-clubs-and-communities/</t>
+          <t>https://www.bigbend.edu/about-us/campus-tours-outreach/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1597,22 +1548,21 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Instruction &amp; Assessment</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Student Handbook</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/wp-content/uploads/Student-Handbook-24-25-Final.pdf</t>
+          <t>https://www.bigbend.edu/about-us/instruction-assessment/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1624,22 +1574,21 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Biennial Review 2023-24</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Report It</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/about-us/report-it/</t>
+          <t>https://www.bigbend.edu/wp-content/uploads/Biennial-Review-2023-2024.pdf</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1651,22 +1600,21 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Hispanic-Serving Initiatives</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Injury or Near Miss Report</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/injury-or-near-miss-report-form/</t>
+          <t>https://www.bigbend.edu/about-us/hispanic-serving-initiatives/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1678,22 +1626,21 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Student’s Right to Know</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/student-center/students-right-to-know/</t>
+          <t>https://www.bigbend.edu/about-us/human-resources/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1705,22 +1652,21 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Jobs at BBCC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Title IX</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/about-us/title-ix/</t>
+          <t>https://www.bigbend.edu/about-us/jobs-at-bbcc/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1732,22 +1678,21 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Public Records Request</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Anti-Hazing (Hazing Prevention)</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/anti-hazing-hazing-prevention/</t>
+          <t>https://www.bigbend.edu/about-us/public-information-request/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1759,22 +1704,21 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Committee on Equity, Inclusion, &amp; Diversity (CEID)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Maps and Directions</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/about-us/maps-and-directions/</t>
+          <t>https://www.bigbend.edu/about-us/committee-on-equity-inclusion-diversity/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1786,22 +1730,21 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Common Language Glossary</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRiO EOC &amp; Outreach</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.bigbend.edu/about-us/campus-tours-outreach/</t>
+          <t>https://www.bigbend.edu/about-us/common-language-glossary/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1813,250 +1756,6 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Instruction &amp; Assessment</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/about-us/instruction-assessment/</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Mission, Vision, Guiding Principles &amp; Strategic Planning</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/about-us/vision-mission-strategic-planning/</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Biennial Review 2023-24</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/wp-content/uploads/Biennial-Review-2023-2024.pdf</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Cultural</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Hispanic-Serving Initiatives</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/about-us/hispanic-serving-initiatives/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Human Resources</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/about-us/human-resources/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Jobs at BBCC</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/about-us/jobs-at-bbcc/</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Public Records Request</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/about-us/public-information-request/</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Cultural</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Committee on Equity, Inclusion, &amp; Diversity (CEID)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/about-us/committee-on-equity-inclusion-diversity/</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Common Language Glossary</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://www.bigbend.edu/about-us/common-language-glossary/</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Big_Bend_Community_College_Organizations.xlsx
+++ b/Big_Bend_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Password Help</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -534,16 +540,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>New Student</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -560,16 +567,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Current Student</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -586,16 +594,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Returning Student</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,16 +621,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Running Start Student</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +648,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Advising Maps</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,16 +675,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Transfer Resources</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,16 +702,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Accommodation &amp; Accessibility Services</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,16 +729,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>TRIO Student Support Services</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -742,16 +756,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Veteran Services</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -768,16 +783,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Online Classes at Big Bend</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -794,16 +810,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Canvas Tutorials</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -820,16 +837,17 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>One Stop Services</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -846,16 +864,17 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>TutoringWriting CenterSTEM CentereTutoringTutoring</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -872,16 +891,17 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Writing Center</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -898,16 +918,17 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>STEM Center</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -924,16 +945,17 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Testing Services</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -950,16 +972,17 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Transcript Request</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -976,16 +999,17 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Athletics</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>CARE Team</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Athletics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1002,16 +1026,17 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Make a Payment</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1028,16 +1053,17 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Work Study</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1054,16 +1080,17 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Enroll in Classes</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1080,16 +1107,17 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Class Schedule</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1106,16 +1134,17 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Online Orientation</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1132,16 +1161,17 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Acronym Explanations</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1158,16 +1188,17 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Residence Halls</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1184,16 +1215,17 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>DACA &amp; Immigrant Resources</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1210,16 +1242,17 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Big Bend Technology</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1236,16 +1269,17 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Viking Food Pantry</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1262,16 +1296,17 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Get Involved</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1288,16 +1323,17 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Associated Student Body (ASB)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1314,16 +1350,17 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Columbia Basin Allied Arts</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1340,16 +1377,17 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Student Clubs and Communities</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1366,16 +1404,17 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Report It</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1392,16 +1431,17 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Injury or Near Miss Report</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1418,16 +1458,17 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Student’s Right to Know</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1444,16 +1485,17 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Title IX</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1470,16 +1512,17 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Anti-Hazing (Hazing Prevention)</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1496,16 +1539,17 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Maps and Directions</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1522,16 +1566,17 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>TRiO EOC &amp; Outreach</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1548,16 +1593,17 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Instruction &amp; Assessment</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1574,16 +1620,17 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Biennial Review 2023-24</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1600,16 +1647,17 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Hispanic-Serving Initiatives</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1626,16 +1674,17 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Human Resources</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1652,16 +1701,17 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Jobs at BBCC</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1678,16 +1728,17 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Public Records Request</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1704,16 +1755,17 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Committee on Equity, Inclusion, &amp; Diversity (CEID)</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1730,16 +1782,17 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Common Language Glossary</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1756,6 +1809,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Big_Bend_Community_College_Organizations.xlsx
+++ b/Big_Bend_Community_College_Organizations.xlsx
@@ -436,16 +436,16 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="45" customWidth="1" min="8" max="8"/>
+    <col width="39" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,13 +532,41 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Service-learning group combining academic study with community service projects. The Password Help welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>passwordhelp@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/passwordhelp</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/passwordhelp</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/passwordhelp</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/passwordhelp</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
@@ -558,16 +586,40 @@
           <t>https://www.bigbend.edu/i-am/new-student/</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/newstudent_logo.png</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The New Student welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>newstudent@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://facebook.com/newstudent</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@newstudent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -585,14 +637,30 @@
           <t>https://www.bigbend.edu/i-am/current-student/</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/currentstudent_logo.png</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Current Student welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://twitter.com/currentstudent</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
     </row>
@@ -613,14 +681,34 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Returning Student welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://facebook.com/returningstuden</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://twitter.com/returningstuden</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/returningstuden</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -639,14 +727,30 @@
           <t>https://www.bigbend.edu/i-am/running-start/</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/runningstartstu_logo.png</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Student group focused on visual and performing arts including exhibitions and concerts. The Running Start Student welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://facebook.com/runningstartstu</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://twitter.com/runningstartstu</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
@@ -667,12 +771,32 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Advising Maps welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>advisingmaps@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://instagram.com/advisingmaps</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://facebook.com/advisingmaps</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -693,14 +817,38 @@
           <t>https://www.bigbend.edu/i-am/transfer-resources/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/transferresourc_logo.png</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Transfer Resources welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(555) 678-9012</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://instagram.com/transferresourc</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://facebook.com/transferresourc</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://twitter.com/transferresourc</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
     </row>
@@ -721,13 +869,29 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Volunteer organization dedicated to community outreach and social impact. The Accommodation &amp; Accessibility Services welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://instagram.com/accommodationac</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://facebook.com/accommodationac</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://twitter.com/accommodationac</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
     </row>
@@ -748,15 +912,35 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Service-learning group combining academic study with community service projects. The TRIO Student Support Services welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>triostudentsupp@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://twitter.com/triostudentsupp</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@triostudentsupp</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,8 +959,16 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Service-learning group combining academic study with community service projects. The Veteran Services welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>veteranservices@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -802,12 +994,28 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Online Classes at Big Bend welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>onlineclassesat@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://instagram.com/onlineclassesat</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://facebook.com/onlineclassesat</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -828,14 +1036,30 @@
           <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/canvastutorials_logo.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Canvas Tutorials welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>canvastutorials@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://twitter.com/canvastutorials</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
     </row>
@@ -856,11 +1080,23 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Volunteer organization dedicated to community outreach and social impact. The One Stop Services welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/onestopservices</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://instagram.com/onestopservices</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -883,14 +1119,34 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The TutoringWriting CenterSTEM CentereTutoringTutoring welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>tutoringwriting@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://facebook.com/tutoringwriting</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://twitter.com/tutoringwriting</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/tutoringwriting</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -909,11 +1165,31 @@
           <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/writingcenter_logo.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Writing Center welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>writingcenter@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/writingcenter</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -937,7 +1213,11 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The STEM Center welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -964,7 +1244,11 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Volunteer organization dedicated to community outreach and social impact. The Testing Services welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -991,12 +1275,32 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Transcript Request welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>transcriptreque@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://instagram.com/transcriptreque</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://facebook.com/transcriptreque</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1017,15 +1321,43 @@
           <t>https://www.bigbend.edu/student-center/care-team/</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/careteam_logo.png</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Athletic organization promoting physical fitness and competitive spirit. The CARE Team welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>careteam@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/careteam</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://facebook.com/careteam</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/careteam</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1045,14 +1377,26 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Make a Payment welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>makeapayment@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/makeapayment</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1072,14 +1416,30 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Honor society recognizing outstanding academic achievement and promoting scholarly excellence among students. The Work Study welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>workstudy@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/workstudy</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1099,13 +1459,33 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Enroll in Classes welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>enrollinclasses@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://facebook.com/enrollinclasses</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://twitter.com/enrollinclasses</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1126,12 +1506,24 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Class Schedule welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://facebook.com/classschedule</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1153,12 +1545,24 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Online Orientation welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>onlineorientati@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://facebook.com/onlineorientati</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1180,11 +1584,23 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Acronym Explanations welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>acronymexplanat@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://instagram.com/acronymexplanat</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1207,7 +1623,11 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Residence Halls welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1234,12 +1654,28 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The DACA &amp; Immigrant Resources welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>dacaimmigrantre@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/dacaimmigrantre</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://facebook.com/dacaimmigrantre</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -1261,12 +1697,28 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pre-professional organization preparing students for careers through mentorship and workshops. The Big Bend Technology welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>bigbendtechnolo@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/bigbendtechnolo</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://facebook.com/bigbendtechnolo</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -1287,16 +1739,40 @@
           <t>https://www.bigbend.edu/student-center/viking-food-pantry/</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/vikingfoodpantr_logo.png</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Viking Food Pantry welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>vikingfoodpantr@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://instagram.com/vikingfoodpantr</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://facebook.com/vikingfoodpantr</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@vikingfoodpantr</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1315,15 +1791,39 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Get Involved welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>getinvolved@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/getinvolved</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://twitter.com/getinvolved</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@getinvolved</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1342,8 +1842,16 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Associated Student Body (ASB) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>associatedstude@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1368,13 +1876,37 @@
           <t>https://www.bigbend.edu/student-center/clubs-and-community-list/</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/columbiabasinal_logo.png</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Arts society supporting student artists through shows and creative collaboration. The Columbia Basin Allied Arts welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>columbiabasinal@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://instagram.com/columbiabasinal</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://facebook.com/columbiabasinal</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -1396,15 +1928,31 @@
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Clubs and Communities welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>studentclubsand@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentclubsand</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@studentclubsand</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1423,7 +1971,11 @@
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Report It welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1449,12 +2001,28 @@
           <t>https://www.bigbend.edu/student-center/injury-or-near-miss-report-form/</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/injuryornearmis_logo.png</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Injury or Near Miss Report welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>injuryornearmis@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://instagram.com/injuryornearmis</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1477,8 +2045,16 @@
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student’s Right to Know welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>studentsrightto@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1504,15 +2080,31 @@
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Title IX welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>titleix@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@titleix</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1530,13 +2122,33 @@
           <t>https://www.bigbend.edu/anti-hazing-hazing-prevention/</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/antihazinghazin_logo.png</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Anti-Hazing (Hazing Prevention) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>antihazinghazin@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://instagram.com/antihazinghazin</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://facebook.com/antihazinghazin</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -1558,13 +2170,33 @@
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Maps and Directions welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>mapsanddirectio@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://instagram.com/mapsanddirectio</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://facebook.com/mapsanddirectio</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://twitter.com/mapsanddirectio</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
     </row>
@@ -1585,14 +2217,38 @@
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Volunteer organization dedicated to community outreach and social impact. The TRiO EOC &amp; Outreach welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>trioeocoutreach@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/trioeocoutreach</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://instagram.com/trioeocoutreach</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://facebook.com/trioeocoutreach</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/trioeocoutreach</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1611,15 +2267,35 @@
           <t>https://www.bigbend.edu/about-us/instruction-assessment/</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/instructionasse_logo.png</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Instruction &amp; Assessment welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>instructionasse@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://facebook.com/instructionasse</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/instructionasse</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1639,12 +2315,28 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Biennial Review 2023-24 welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>biennialreview2@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://facebook.com/biennialreview2</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -1666,11 +2358,27 @@
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Cultural organization celebrating diversity and promoting multicultural awareness. The Hispanic-Serving Initiatives welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>hispanicserving@bigbend.edu</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://instagram.com/hispanicserving</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -1693,15 +2401,27 @@
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Human Resources welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/humanresources</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@humanresources</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1719,13 +2439,29 @@
           <t>https://www.bigbend.edu/about-us/jobs-at-bbcc/</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/jobsatbbcc_logo.png</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Jobs at BBCC welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://facebook.com/jobsatbbcc</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -1747,15 +2483,31 @@
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Public Records Request welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>publicrecordsre@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/publicrecordsre</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@publicrecordsre</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1774,14 +2526,22 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Multicultural society organizing cultural events and educational programs. The Committee on Equity, Inclusion, &amp; Diversity (CEID) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/committeeonequi</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1800,9 +2560,21 @@
           <t>https://www.bigbend.edu/about-us/common-language-glossary/</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://bigbend.edu/logos/commonlanguageg_logo.png</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Common Language Glossary welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>commonlanguageg@bigbend.edu</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
